--- a/Planing/PlanUpdate.xlsx
+++ b/Planing/PlanUpdate.xlsx
@@ -100,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +138,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -223,66 +230,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,31 +590,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="7"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="22"/>
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -654,11 +662,11 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -675,11 +683,11 @@
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -696,12 +704,12 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -717,14 +725,14 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="2"/>
@@ -738,14 +746,14 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="9"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="2"/>
@@ -759,16 +767,16 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -780,20 +788,20 @@
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -801,10 +809,10 @@
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -815,15 +823,15 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="2"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="25"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -836,13 +844,13 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -861,17 +869,17 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
